--- a/widetable/package/filenames.xlsx
+++ b/widetable/package/filenames.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="dhs_pr_files" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="458">
   <si>
     <t>folder_country</t>
   </si>
@@ -41,199 +41,1366 @@
     <t>filepath</t>
   </si>
   <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>TimorLeste</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>hl.dta</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
     <t>Bangladesh</t>
   </si>
   <si>
+    <t>Chad</t>
+  </si>
+  <si>
     <t>DRCongo</t>
   </si>
   <si>
-    <t>Cameroon</t>
+    <t>Gambia</t>
   </si>
   <si>
     <t>Ghana</t>
   </si>
   <si>
-    <t>Jordan</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>PKPR71FL.dta</t>
-  </si>
-  <si>
-    <t>Senegal</t>
-  </si>
-  <si>
-    <t>Togo</t>
-  </si>
-  <si>
-    <t>TimorLeste</t>
-  </si>
-  <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>hl.dta</t>
-  </si>
-  <si>
-    <t>Montenegro</t>
-  </si>
-  <si>
-    <t>TFYRMacedonia</t>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Nepal</t>
   </si>
   <si>
     <t>Turkmenistan</t>
   </si>
   <si>
-    <t>Somalia</t>
-  </si>
-  <si>
-    <t>Qatar</t>
-  </si>
-  <si>
-    <t>Kiribati</t>
-  </si>
-  <si>
-    <t>Bangladesh/2019/hl.dta</t>
-  </si>
-  <si>
-    <t>Somalia/2011/hl.dta</t>
-  </si>
-  <si>
-    <t>TFYRMacedonia/2018/hl.dta</t>
-  </si>
-  <si>
-    <t>DRCongo/2017/hl.dta</t>
-  </si>
-  <si>
-    <t>Montenegro/2018/hl.dta</t>
-  </si>
-  <si>
-    <t>Ghana/2017/hl.dta</t>
-  </si>
-  <si>
-    <t>Togo/2017/hl.dta</t>
-  </si>
-  <si>
-    <t>Turkmenistan/2019/hl.dta</t>
-  </si>
-  <si>
-    <t>Qatar/2012/hl.dta</t>
-  </si>
-  <si>
-    <t>Kiribati/2018/hl.dta</t>
-  </si>
-  <si>
-    <t>CostaRica</t>
-  </si>
-  <si>
-    <t>CostaRica/2018/hl.dta</t>
-  </si>
-  <si>
-    <t>CMIR71FL.dta</t>
-  </si>
-  <si>
-    <t>CMPR71FL.dta</t>
-  </si>
-  <si>
-    <t>CMMR71FL.dta</t>
-  </si>
-  <si>
-    <t>TLMR71FL.dta</t>
-  </si>
-  <si>
-    <t>TLIR71FL.dta</t>
-  </si>
-  <si>
-    <t>TLPR71FL.dta</t>
-  </si>
-  <si>
-    <t>UGIR7BFL.dta</t>
-  </si>
-  <si>
-    <t>UGPR7BFL.dta</t>
-  </si>
-  <si>
-    <t>UGMR7BFL.dta</t>
-  </si>
-  <si>
-    <t>JOIR73FL.dta</t>
-  </si>
-  <si>
-    <t>JOPR73FL.dta</t>
-  </si>
-  <si>
-    <t>SNIR80FL.dta</t>
-  </si>
-  <si>
-    <t>SNPR80FL.dta</t>
-  </si>
-  <si>
-    <t>SNMR80FL.dta</t>
-  </si>
-  <si>
-    <t>PKIR71FL.dta</t>
-  </si>
-  <si>
-    <t>PKMR71FL.dta</t>
-  </si>
-  <si>
-    <t>Cameroon/2018/CMPR71FL.dta</t>
-  </si>
-  <si>
-    <t>TimorLeste/2016/TLPR71FL.dta</t>
-  </si>
-  <si>
-    <t>Uganda/2016/UGPR7BFL.dta</t>
-  </si>
-  <si>
-    <t>Jordan/2017/JOPR73FL.dta</t>
-  </si>
-  <si>
-    <t>Senegal/2018/SNPR80FL.dta</t>
-  </si>
-  <si>
-    <t>Pakistan/2017/PKPR71FL.dta</t>
-  </si>
-  <si>
-    <t>Cameroon/2018/CMIR71FL.dta</t>
-  </si>
-  <si>
-    <t>TimorLeste/2016/TLIR71FL.dta</t>
-  </si>
-  <si>
-    <t>Uganda/2016/UGIR7BFL.dta</t>
-  </si>
-  <si>
-    <t>Jordan/2017/JOIR73FL.dta</t>
-  </si>
-  <si>
-    <t>Senegal/2018/SNIR80FL.dta</t>
-  </si>
-  <si>
-    <t>Pakistan/2017/PKIR71FL.dta</t>
-  </si>
-  <si>
-    <t>Cameroon/2018/CMMR71FL.dta</t>
-  </si>
-  <si>
-    <t>TimorLeste/2016/TLMR71FL.dta</t>
-  </si>
-  <si>
-    <t>Uganda/2016/UGMR7BFL.dta</t>
-  </si>
-  <si>
-    <t>Senegal/2018/SNMR80FL.dta</t>
-  </si>
-  <si>
-    <t>Pakistan/2017/PKMR71FL.dta</t>
-  </si>
-  <si>
-    <t>JOMR71FL.dta</t>
-  </si>
-  <si>
-    <t>Jordan/2017/JOMR71FL.dta</t>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>AFIR70FL.DTA</t>
+  </si>
+  <si>
+    <t>Afghanistan/2015/AFIR70FL.DTA</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>ALIR71FL.DTA</t>
+  </si>
+  <si>
+    <t>Albania/2017/ALIR71FL.DTA</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>AOIR61FL.DTA</t>
+  </si>
+  <si>
+    <t>Angola/2011/AOIR61FL.DTA</t>
+  </si>
+  <si>
+    <t>AOIR71FL.DTA</t>
+  </si>
+  <si>
+    <t>Angola/2015/AOIR71FL.DTA</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>AMIR61FL.DTA</t>
+  </si>
+  <si>
+    <t>Armenia/2010/AMIR61FL.DTA</t>
+  </si>
+  <si>
+    <t>AMIR72FL.DTA</t>
+  </si>
+  <si>
+    <t>Armenia/2015/AMIR72FL.DTA</t>
+  </si>
+  <si>
+    <t>BDIR61FL.DTA</t>
+  </si>
+  <si>
+    <t>Bangladesh/2011/BDIR61FL.DTA</t>
+  </si>
+  <si>
+    <t>BDIR72FL.DTA</t>
+  </si>
+  <si>
+    <t>Bangladesh/2014/BDIR72FL.DTA</t>
+  </si>
+  <si>
+    <t>BDIR7RFL.DTA</t>
+  </si>
+  <si>
+    <t>Bangladesh/2017/BDIR7RFL.DTA</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>BJIR61FL.DTA</t>
+  </si>
+  <si>
+    <t>Benin/2011/BJIR61FL.DTA</t>
+  </si>
+  <si>
+    <t>BJIR71FL.DTA</t>
+  </si>
+  <si>
+    <t>Benin/2018/BJIR71FL.DTA</t>
+  </si>
+  <si>
+    <t>BurkinaFaso</t>
+  </si>
+  <si>
+    <t>BFIR61FL.DTA</t>
+  </si>
+  <si>
+    <t>BurkinaFaso/2010/BFIR61FL.DTA</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>BUIR61FL.DTA</t>
+  </si>
+  <si>
+    <t>Burundi/2010/BUIR61FL.DTA</t>
+  </si>
+  <si>
+    <t>BUIR71FL.DTA</t>
+  </si>
+  <si>
+    <t>Burundi/2016/BUIR71FL.DTA</t>
+  </si>
+  <si>
+    <t>BUIR70FL.DTA</t>
+  </si>
+  <si>
+    <t>Burundi/2017/BUIR70FL.DTA</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>KHIR61FL.DTA</t>
+  </si>
+  <si>
+    <t>Cambodia/2010/KHIR61FL.DTA</t>
+  </si>
+  <si>
+    <t>KHIR72FL.DTA</t>
+  </si>
+  <si>
+    <t>Cambodia/2014/KHIR72FL.DTA</t>
+  </si>
+  <si>
+    <t>CMIR60FL.DTA</t>
+  </si>
+  <si>
+    <t>Cameroon/2011/CMIR60FL.DTA</t>
+  </si>
+  <si>
+    <t>CMIR71FL.DTA</t>
+  </si>
+  <si>
+    <t>Cameroon/2018/CMIR71FL.DTA</t>
+  </si>
+  <si>
+    <t>TDIR71FL.DTA</t>
+  </si>
+  <si>
+    <t>Chad/2014/TDIR71FL.DTA</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>COIR71FL.DTA</t>
+  </si>
+  <si>
+    <t>Colombia/2015/COIR71FL.DTA</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>KMIR61FL.DTA</t>
+  </si>
+  <si>
+    <t>Comoros/2012/KMIR61FL.DTA</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
+    <t>CGIR60FL.DTA</t>
+  </si>
+  <si>
+    <t>Congo/2011/CGIR60FL.DTA</t>
+  </si>
+  <si>
+    <t>CotedIvoire</t>
+  </si>
+  <si>
+    <t>CIIR61FL.DTA</t>
+  </si>
+  <si>
+    <t>CotedIvoire/2011/CIIR61FL.DTA</t>
+  </si>
+  <si>
+    <t>CDIR60FL.DTA</t>
+  </si>
+  <si>
+    <t>DRCongo/2013/CDIR60FL.DTA</t>
+  </si>
+  <si>
+    <t>DominicanRepublic</t>
+  </si>
+  <si>
+    <t>DRIR61FL.DTA</t>
+  </si>
+  <si>
+    <t>DominicanRepublic/2013/DRIR61FL.DTA</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>EGIR61FL.DTA</t>
+  </si>
+  <si>
+    <t>Egypt/2014/EGIR61FL.DTA</t>
+  </si>
+  <si>
+    <t>ETIR61FL.DTA</t>
+  </si>
+  <si>
+    <t>Ethiopia/2011/ETIR61FL.DTA</t>
+  </si>
+  <si>
+    <t>ETIR70FL.DTA</t>
+  </si>
+  <si>
+    <t>Ethiopia/2016/ETIR70FL.DTA</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>GAIR60FL.DTA</t>
+  </si>
+  <si>
+    <t>Gabon/2012/GAIR60FL.DTA</t>
+  </si>
+  <si>
+    <t>GMIR60FL.DTA</t>
+  </si>
+  <si>
+    <t>Gambia/2013/GMIR60FL.DTA</t>
+  </si>
+  <si>
+    <t>GMIR61FL.DTA</t>
+  </si>
+  <si>
+    <t>Gambia/2013/GMIR61FL.DTA</t>
+  </si>
+  <si>
+    <t>GHIR72FL.DTA</t>
+  </si>
+  <si>
+    <t>Ghana/2014/GHIR72FL.DTA</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>GUIR71FL.DTA</t>
+  </si>
+  <si>
+    <t>Guatemala/2014/GUIR71FL.DTA</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>GNIR61FL.DTA</t>
+  </si>
+  <si>
+    <t>Guinea/2012/GNIR61FL.DTA</t>
+  </si>
+  <si>
+    <t>GNIR71FL.DTA</t>
+  </si>
+  <si>
+    <t>Guinea/2018/GNIR71FL.DTA</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>HTIR61FL.DTA</t>
+  </si>
+  <si>
+    <t>Haiti/2012/HTIR61FL.DTA</t>
+  </si>
+  <si>
+    <t>HTIR71FL.DTA</t>
+  </si>
+  <si>
+    <t>Haiti/2017/HTIR71FL.DTA</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>HNIR61FL.DTA</t>
+  </si>
+  <si>
+    <t>Honduras/2011/HNIR61FL.DTA</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>IDIR61FL.DTA</t>
+  </si>
+  <si>
+    <t>Indonesia/2012/IDIR61FL.DTA</t>
+  </si>
+  <si>
+    <t>IDIR71FL.DTA</t>
+  </si>
+  <si>
+    <t>Indonesia/2017/IDIR71FL.DTA</t>
+  </si>
+  <si>
+    <t>JOIR6BFL.DTA</t>
+  </si>
+  <si>
+    <t>Jordan/2012/JOIR6BFL.DTA</t>
+  </si>
+  <si>
+    <t>JOIR73FL.DTA</t>
+  </si>
+  <si>
+    <t>Jordan/2017/JOIR73FL.DTA</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>KEIR72FL.DTA</t>
+  </si>
+  <si>
+    <t>Kenya/2014/KEIR72FL.DTA</t>
+  </si>
+  <si>
+    <t>KYIR60FL.DTA</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan/2012/KYIR60FL.DTA</t>
+  </si>
+  <si>
+    <t>LSIR71FL.DTA</t>
+  </si>
+  <si>
+    <t>Lesotho/2014/LSIR71FL.DTA</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>LBIR6AFL.DTA</t>
+  </si>
+  <si>
+    <t>Liberia/2013/LBIR6AFL.DTA</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>MWIR61FL.DTA</t>
+  </si>
+  <si>
+    <t>Malawi/2010/MWIR61FL.DTA</t>
+  </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>MVIR71FL.DTA</t>
+  </si>
+  <si>
+    <t>Maldives/2017/MVIR71FL.DTA</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>MLIR6HFL.DTA</t>
+  </si>
+  <si>
+    <t>Mali/2012/MLIR6HFL.DTA</t>
+  </si>
+  <si>
+    <t>MLIR7HFL.DTA</t>
+  </si>
+  <si>
+    <t>Mali/2018/MLIR7HFL.DTA</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>MZIR61FL.DTA</t>
+  </si>
+  <si>
+    <t>Mozambique/2011/MZIR61FL.DTA</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>MMIR71FL.DTA</t>
+  </si>
+  <si>
+    <t>Myanmar/2015/MMIR71FL.DTA</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>NMIR61FL.DTA</t>
+  </si>
+  <si>
+    <t>Namibia/2013/NMIR61FL.DTA</t>
+  </si>
+  <si>
+    <t>NPIR60FL.DTA</t>
+  </si>
+  <si>
+    <t>Nepal/2011/NPIR60FL.DTA</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>NIIR61FL.DTA</t>
+  </si>
+  <si>
+    <t>Niger/2012/NIIR61FL.DTA</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>NGIR6AFL.DTA</t>
+  </si>
+  <si>
+    <t>Nigeria/2013/NGIR6AFL.DTA</t>
+  </si>
+  <si>
+    <t>NGIR7AFL.DTA</t>
+  </si>
+  <si>
+    <t>Nigeria/2018/NGIR7AFL.DTA</t>
+  </si>
+  <si>
+    <t>PKIR61FL.DTA</t>
+  </si>
+  <si>
+    <t>Pakistan/2012/PKIR61FL.DTA</t>
+  </si>
+  <si>
+    <t>PKIR71FL.DTA</t>
+  </si>
+  <si>
+    <t>Pakistan/2017/PKIR71FL.DTA</t>
+  </si>
+  <si>
+    <t>Pakistan/2018/PKIR71FL.DTA</t>
+  </si>
+  <si>
+    <t>SNIR80FL.DTA</t>
+  </si>
+  <si>
+    <t>Senegal/2018/SNIR80FL.DTA</t>
+  </si>
+  <si>
+    <t>SNIR8AFL.DTA</t>
+  </si>
+  <si>
+    <t>Senegal/2019/SNIR8AFL.DTA</t>
+  </si>
+  <si>
+    <t>SierraLeone</t>
+  </si>
+  <si>
+    <t>SLIR7AFL.DTA</t>
+  </si>
+  <si>
+    <t>SierraLeone/2019/SLIR7AFL.DTA</t>
+  </si>
+  <si>
+    <t>TLIR71FL.DTA</t>
+  </si>
+  <si>
+    <t>TimorLeste/2016/TLIR71FL.DTA</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>TRIR62FL.DTA</t>
+  </si>
+  <si>
+    <t>Turkey/2013/TRIR62FL.DTA</t>
+  </si>
+  <si>
+    <t>UGIR7BFL.DTA</t>
+  </si>
+  <si>
+    <t>Uganda/2016/UGIR7BFL.DTA</t>
+  </si>
+  <si>
+    <t>AFPR70FL.DTA</t>
+  </si>
+  <si>
+    <t>Afghanistan/2015/AFPR70FL.DTA</t>
+  </si>
+  <si>
+    <t>ALPR71FL.DTA</t>
+  </si>
+  <si>
+    <t>Albania/2017/ALPR71FL.DTA</t>
+  </si>
+  <si>
+    <t>AOPR61FL.DTA</t>
+  </si>
+  <si>
+    <t>Angola/2011/AOPR61FL.DTA</t>
+  </si>
+  <si>
+    <t>AOPR71FL.DTA</t>
+  </si>
+  <si>
+    <t>Angola/2015/AOPR71FL.DTA</t>
+  </si>
+  <si>
+    <t>AMPR61FL.DTA</t>
+  </si>
+  <si>
+    <t>Armenia/2010/AMPR61FL.DTA</t>
+  </si>
+  <si>
+    <t>AMPR72FL.DTA</t>
+  </si>
+  <si>
+    <t>Armenia/2015/AMPR72FL.DTA</t>
+  </si>
+  <si>
+    <t>BDPR61FL.DTA</t>
+  </si>
+  <si>
+    <t>Bangladesh/2011/BDPR61FL.DTA</t>
+  </si>
+  <si>
+    <t>BDPR72FL.DTA</t>
+  </si>
+  <si>
+    <t>Bangladesh/2014/BDPR72FL.DTA</t>
+  </si>
+  <si>
+    <t>BDPR7RFL.DTA</t>
+  </si>
+  <si>
+    <t>Bangladesh/2017/BDPR7RFL.DTA</t>
+  </si>
+  <si>
+    <t>BJPR61FL.DTA</t>
+  </si>
+  <si>
+    <t>Benin/2011/BJPR61FL.DTA</t>
+  </si>
+  <si>
+    <t>BJPR71FL.DTA</t>
+  </si>
+  <si>
+    <t>Benin/2018/BJPR71FL.DTA</t>
+  </si>
+  <si>
+    <t>BFPR61FL.DTA</t>
+  </si>
+  <si>
+    <t>BurkinaFaso/2010/BFPR61FL.DTA</t>
+  </si>
+  <si>
+    <t>BUPR61FL.DTA</t>
+  </si>
+  <si>
+    <t>Burundi/2010/BUPR61FL.DTA</t>
+  </si>
+  <si>
+    <t>BUPR71FL.DTA</t>
+  </si>
+  <si>
+    <t>Burundi/2016/BUPR71FL.DTA</t>
+  </si>
+  <si>
+    <t>BUPR70FL.DTA</t>
+  </si>
+  <si>
+    <t>Burundi/2017/BUPR70FL.DTA</t>
+  </si>
+  <si>
+    <t>KHPR61FL.DTA</t>
+  </si>
+  <si>
+    <t>Cambodia/2010/KHPR61FL.DTA</t>
+  </si>
+  <si>
+    <t>KHPR72FL.DTA</t>
+  </si>
+  <si>
+    <t>Cambodia/2014/KHPR72FL.DTA</t>
+  </si>
+  <si>
+    <t>CMPR60FL.DTA</t>
+  </si>
+  <si>
+    <t>Cameroon/2011/CMPR60FL.DTA</t>
+  </si>
+  <si>
+    <t>CMPR71FL.DTA</t>
+  </si>
+  <si>
+    <t>Cameroon/2018/CMPR71FL.DTA</t>
+  </si>
+  <si>
+    <t>TDPR71FL.DTA</t>
+  </si>
+  <si>
+    <t>Chad/2014/TDPR71FL.DTA</t>
+  </si>
+  <si>
+    <t>COPR61FL.DTA</t>
+  </si>
+  <si>
+    <t>Colombia/2010/COPR61FL.DTA</t>
+  </si>
+  <si>
+    <t>COPR71FL.DTA</t>
+  </si>
+  <si>
+    <t>Colombia/2015/COPR71FL.DTA</t>
+  </si>
+  <si>
+    <t>KMPR61FL.DTA</t>
+  </si>
+  <si>
+    <t>Comoros/2012/KMPR61FL.DTA</t>
+  </si>
+  <si>
+    <t>CGPR60FL.DTA</t>
+  </si>
+  <si>
+    <t>Congo/2011/CGPR60FL.DTA</t>
+  </si>
+  <si>
+    <t>CIPR61FL.DTA</t>
+  </si>
+  <si>
+    <t>CotedIvoire/2011/CIPR61FL.DTA</t>
+  </si>
+  <si>
+    <t>CDPR60FL.DTA</t>
+  </si>
+  <si>
+    <t>DRCongo/2013/CDPR60FL.DTA</t>
+  </si>
+  <si>
+    <t>DRPR61FL.DTA</t>
+  </si>
+  <si>
+    <t>DominicanRepublic/2013/DRPR61FL.DTA</t>
+  </si>
+  <si>
+    <t>EGPR61FL.DTA</t>
+  </si>
+  <si>
+    <t>Egypt/2014/EGPR61FL.DTA</t>
+  </si>
+  <si>
+    <t>ETPR61FL.DTA</t>
+  </si>
+  <si>
+    <t>Ethiopia/2011/ETPR61FL.DTA</t>
+  </si>
+  <si>
+    <t>ETPR70FL.DTA</t>
+  </si>
+  <si>
+    <t>Ethiopia/2016/ETPR70FL.DTA</t>
+  </si>
+  <si>
+    <t>GAPR60FL.DTA</t>
+  </si>
+  <si>
+    <t>Gabon/2012/GAPR60FL.DTA</t>
+  </si>
+  <si>
+    <t>GMPR60FL.DTA</t>
+  </si>
+  <si>
+    <t>Gambia/2013/GMPR60FL.DTA</t>
+  </si>
+  <si>
+    <t>GMPR61FL.DTA</t>
+  </si>
+  <si>
+    <t>Gambia/2013/GMPR61FL.DTA</t>
+  </si>
+  <si>
+    <t>GHPR72FL.DTA</t>
+  </si>
+  <si>
+    <t>Ghana/2014/GHPR72FL.DTA</t>
+  </si>
+  <si>
+    <t>GUPR71FL.DTA</t>
+  </si>
+  <si>
+    <t>Guatemala/2014/GUPR71FL.DTA</t>
+  </si>
+  <si>
+    <t>GNPR61FL.DTA</t>
+  </si>
+  <si>
+    <t>Guinea/2012/GNPR61FL.DTA</t>
+  </si>
+  <si>
+    <t>GNPR71FL.DTA</t>
+  </si>
+  <si>
+    <t>Guinea/2018/GNPR71FL.DTA</t>
+  </si>
+  <si>
+    <t>HTPR61FL.DTA</t>
+  </si>
+  <si>
+    <t>Haiti/2012/HTPR61FL.DTA</t>
+  </si>
+  <si>
+    <t>HTPR71FL.DTA</t>
+  </si>
+  <si>
+    <t>Haiti/2017/HTPR71FL.DTA</t>
+  </si>
+  <si>
+    <t>HNPR61FL.DTA</t>
+  </si>
+  <si>
+    <t>Honduras/2011/HNPR61FL.DTA</t>
+  </si>
+  <si>
+    <t>IDPR61FL.DTA</t>
+  </si>
+  <si>
+    <t>Indonesia/2012/IDPR61FL.DTA</t>
+  </si>
+  <si>
+    <t>IDPR71FL.DTA</t>
+  </si>
+  <si>
+    <t>Indonesia/2017/IDPR71FL.DTA</t>
+  </si>
+  <si>
+    <t>JOPR6BFL.DTA</t>
+  </si>
+  <si>
+    <t>Jordan/2012/JOPR6BFL.DTA</t>
+  </si>
+  <si>
+    <t>JOPR73FL.DTA</t>
+  </si>
+  <si>
+    <t>Jordan/2017/JOPR73FL.DTA</t>
+  </si>
+  <si>
+    <t>KEPR72FL.DTA</t>
+  </si>
+  <si>
+    <t>Kenya/2014/KEPR72FL.DTA</t>
+  </si>
+  <si>
+    <t>KYPR60FL.DTA</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan/2012/KYPR60FL.DTA</t>
+  </si>
+  <si>
+    <t>LSPR71FL.DTA</t>
+  </si>
+  <si>
+    <t>Lesotho/2014/LSPR71FL.DTA</t>
+  </si>
+  <si>
+    <t>LBPR6AFL.DTA</t>
+  </si>
+  <si>
+    <t>Liberia/2013/LBPR6AFL.DTA</t>
+  </si>
+  <si>
+    <t>MWPR61FL.DTA</t>
+  </si>
+  <si>
+    <t>Malawi/2010/MWPR61FL.DTA</t>
+  </si>
+  <si>
+    <t>MVPR71FL.DTA</t>
+  </si>
+  <si>
+    <t>Maldives/2017/MVPR71FL.DTA</t>
+  </si>
+  <si>
+    <t>MLPR6HFL.DTA</t>
+  </si>
+  <si>
+    <t>Mali/2012/MLPR6HFL.DTA</t>
+  </si>
+  <si>
+    <t>MLPR7HFL.DTA</t>
+  </si>
+  <si>
+    <t>Mali/2018/MLPR7HFL.DTA</t>
+  </si>
+  <si>
+    <t>MZPR61FL.DTA</t>
+  </si>
+  <si>
+    <t>Mozambique/2011/MZPR61FL.DTA</t>
+  </si>
+  <si>
+    <t>MMPR71FL.DTA</t>
+  </si>
+  <si>
+    <t>Myanmar/2015/MMPR71FL.DTA</t>
+  </si>
+  <si>
+    <t>NMPR61FL.DTA</t>
+  </si>
+  <si>
+    <t>Namibia/2013/NMPR61FL.DTA</t>
+  </si>
+  <si>
+    <t>NPPR60FL.DTA</t>
+  </si>
+  <si>
+    <t>Nepal/2011/NPPR60FL.DTA</t>
+  </si>
+  <si>
+    <t>NPPR7HFL.DTA</t>
+  </si>
+  <si>
+    <t>Nepal/2016/NPPR7HFL.DTA</t>
+  </si>
+  <si>
+    <t>NIPR61FL.DTA</t>
+  </si>
+  <si>
+    <t>Niger/2012/NIPR61FL.DTA</t>
+  </si>
+  <si>
+    <t>NGPR6AFL.DTA</t>
+  </si>
+  <si>
+    <t>Nigeria/2013/NGPR6AFL.DTA</t>
+  </si>
+  <si>
+    <t>NGPR7AFL.DTA</t>
+  </si>
+  <si>
+    <t>Nigeria/2018/NGPR7AFL.DTA</t>
+  </si>
+  <si>
+    <t>PKPR61FL.DTA</t>
+  </si>
+  <si>
+    <t>Pakistan/2012/PKPR61FL.DTA</t>
+  </si>
+  <si>
+    <t>PKPR71FL.DTA</t>
+  </si>
+  <si>
+    <t>Pakistan/2017/PKPR71FL.DTA</t>
+  </si>
+  <si>
+    <t>SNPR80FL.DTA</t>
+  </si>
+  <si>
+    <t>Senegal/2018/SNPR80FL.DTA</t>
+  </si>
+  <si>
+    <t>SNPR8AFL.DTA</t>
+  </si>
+  <si>
+    <t>Senegal/2019/SNPR8AFL.DTA</t>
+  </si>
+  <si>
+    <t>SLPR7AFL.DTA</t>
+  </si>
+  <si>
+    <t>SierraLeone/2019/SLPR7AFL.DTA</t>
+  </si>
+  <si>
+    <t>TLPR71FL.DTA</t>
+  </si>
+  <si>
+    <t>TimorLeste/2016/TLPR71FL.DTA</t>
+  </si>
+  <si>
+    <t>TRPR62FL.DTA</t>
+  </si>
+  <si>
+    <t>Turkey/2013/TRPR62FL.DTA</t>
+  </si>
+  <si>
+    <t>UGPR7BFL.DTA</t>
+  </si>
+  <si>
+    <t>Uganda/2016/UGPR7BFL.DTA</t>
+  </si>
+  <si>
+    <t>AFMR70FL.DTA</t>
+  </si>
+  <si>
+    <t>Afghanistan/2015/AFMR70FL.DTA</t>
+  </si>
+  <si>
+    <t>ALMR71FL.DTA</t>
+  </si>
+  <si>
+    <t>Albania/2017/ALMR71FL.DTA</t>
+  </si>
+  <si>
+    <t>AOMR71FL.DTA</t>
+  </si>
+  <si>
+    <t>Angola/2015/AOMR71FL.DTA</t>
+  </si>
+  <si>
+    <t>AMMR61FL.DTA</t>
+  </si>
+  <si>
+    <t>Armenia/2010/AMMR61FL.DTA</t>
+  </si>
+  <si>
+    <t>AMMR72FL.DTA</t>
+  </si>
+  <si>
+    <t>Armenia/2015/AMMR72FL.DTA</t>
+  </si>
+  <si>
+    <t>BDMR61FL.DTA</t>
+  </si>
+  <si>
+    <t>Bangladesh/2011/BDMR61FL.DTA</t>
+  </si>
+  <si>
+    <t>BJMR61FL.DTA</t>
+  </si>
+  <si>
+    <t>Benin/2011/BJMR61FL.DTA</t>
+  </si>
+  <si>
+    <t>BJMR71FL.DTA</t>
+  </si>
+  <si>
+    <t>Benin/2017/BJMR71FL.DTA</t>
+  </si>
+  <si>
+    <t>Benin/2018/BJMR71FL.DTA</t>
+  </si>
+  <si>
+    <t>BFMR61FL.DTA</t>
+  </si>
+  <si>
+    <t>BurkinaFaso/2010/BFMR61FL.DTA</t>
+  </si>
+  <si>
+    <t>BUMR61FL.DTA</t>
+  </si>
+  <si>
+    <t>Burundi/2010/BUMR61FL.DTA</t>
+  </si>
+  <si>
+    <t>BUMR71FL.DTA</t>
+  </si>
+  <si>
+    <t>Burundi/2016/BUMR71FL.DTA</t>
+  </si>
+  <si>
+    <t>BUMR70FL.DTA</t>
+  </si>
+  <si>
+    <t>Burundi/2017/BUMR70FL.DTA</t>
+  </si>
+  <si>
+    <t>KHMR61FL.DTA</t>
+  </si>
+  <si>
+    <t>Cambodia/2010/KHMR61FL.DTA</t>
+  </si>
+  <si>
+    <t>KHMR72FL.DTA</t>
+  </si>
+  <si>
+    <t>Cambodia/2014/KHMR72FL.DTA</t>
+  </si>
+  <si>
+    <t>CMMR60FL.DTA</t>
+  </si>
+  <si>
+    <t>Cameroon/2011/CMMR60FL.DTA</t>
+  </si>
+  <si>
+    <t>CMMR71FL.DTA</t>
+  </si>
+  <si>
+    <t>Cameroon/2018/CMMR71FL.DTA</t>
+  </si>
+  <si>
+    <t>TDMR71FL.DTA</t>
+  </si>
+  <si>
+    <t>Chad/2014/TDMR71FL.DTA</t>
+  </si>
+  <si>
+    <t>COMR71FL.DTA</t>
+  </si>
+  <si>
+    <t>Colombia/2015/COMR71FL.DTA</t>
+  </si>
+  <si>
+    <t>KMMR61FL.DTA</t>
+  </si>
+  <si>
+    <t>Comoros/2012/KMMR61FL.DTA</t>
+  </si>
+  <si>
+    <t>CGMR60FL.DTA</t>
+  </si>
+  <si>
+    <t>Congo/2011/CGMR60FL.DTA</t>
+  </si>
+  <si>
+    <t>CIMR61FL.DTA</t>
+  </si>
+  <si>
+    <t>CotedIvoire/2011/CIMR61FL.DTA</t>
+  </si>
+  <si>
+    <t>CDMR60FL.DTA</t>
+  </si>
+  <si>
+    <t>DRCongo/2013/CDMR60FL.DTA</t>
+  </si>
+  <si>
+    <t>DRMR61FL.DTA</t>
+  </si>
+  <si>
+    <t>DominicanRepublic/2013/DRMR61FL.DTA</t>
+  </si>
+  <si>
+    <t>ETMR61FL.DTA</t>
+  </si>
+  <si>
+    <t>Ethiopia/2011/ETMR61FL.DTA</t>
+  </si>
+  <si>
+    <t>ETMR70FL.DTA</t>
+  </si>
+  <si>
+    <t>Ethiopia/2016/ETMR70FL.DTA</t>
+  </si>
+  <si>
+    <t>GAMR60FL.DTA</t>
+  </si>
+  <si>
+    <t>Gabon/2012/GAMR60FL.DTA</t>
+  </si>
+  <si>
+    <t>GMMR60FL.DTA</t>
+  </si>
+  <si>
+    <t>Gambia/2013/GMMR60FL.DTA</t>
+  </si>
+  <si>
+    <t>GMMR61FL.DTA</t>
+  </si>
+  <si>
+    <t>Gambia/2013/GMMR61FL.DTA</t>
+  </si>
+  <si>
+    <t>GHMR71FL.DTA</t>
+  </si>
+  <si>
+    <t>Ghana/2014/GHMR71FL.DTA</t>
+  </si>
+  <si>
+    <t>GUMR71FL.DTA</t>
+  </si>
+  <si>
+    <t>Guatemala/2014/GUMR71FL.DTA</t>
+  </si>
+  <si>
+    <t>GNMR61FL.DTA</t>
+  </si>
+  <si>
+    <t>Guinea/2012/GNMR61FL.DTA</t>
+  </si>
+  <si>
+    <t>GNMR71FL.DTA</t>
+  </si>
+  <si>
+    <t>Guinea/2018/GNMR71FL.DTA</t>
+  </si>
+  <si>
+    <t>HTMR61FL.DTA</t>
+  </si>
+  <si>
+    <t>Haiti/2012/HTMR61FL.DTA</t>
+  </si>
+  <si>
+    <t>HTMR71FL.DTA</t>
+  </si>
+  <si>
+    <t>Haiti/2017/HTMR71FL.DTA</t>
+  </si>
+  <si>
+    <t>HNMR61FL.DTA</t>
+  </si>
+  <si>
+    <t>Honduras/2011/HNMR61FL.DTA</t>
+  </si>
+  <si>
+    <t>IDMR61FL.DTA</t>
+  </si>
+  <si>
+    <t>Indonesia/2012/IDMR61FL.DTA</t>
+  </si>
+  <si>
+    <t>IDMR71FL.DTA</t>
+  </si>
+  <si>
+    <t>Indonesia/2017/IDMR71FL.DTA</t>
+  </si>
+  <si>
+    <t>JOMR71FL.DTA</t>
+  </si>
+  <si>
+    <t>Jordan/2017/JOMR71FL.DTA</t>
+  </si>
+  <si>
+    <t>KEMR72FL.DTA</t>
+  </si>
+  <si>
+    <t>Kenya/2014/KEMR72FL.DTA</t>
+  </si>
+  <si>
+    <t>KYMR60FL.DTA</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan/2012/KYMR60FL.DTA</t>
+  </si>
+  <si>
+    <t>LSMR71FL.DTA</t>
+  </si>
+  <si>
+    <t>Lesotho/2014/LSMR71FL.DTA</t>
+  </si>
+  <si>
+    <t>LBMR6AFL.DTA</t>
+  </si>
+  <si>
+    <t>Liberia/2013/LBMR6AFL.DTA</t>
+  </si>
+  <si>
+    <t>MWMR61FL.DTA</t>
+  </si>
+  <si>
+    <t>Malawi/2010/MWMR61FL.DTA</t>
+  </si>
+  <si>
+    <t>MVMR71FL.DTA</t>
+  </si>
+  <si>
+    <t>Maldives/2017/MVMR71FL.DTA</t>
+  </si>
+  <si>
+    <t>MLMR6HFL.DTA</t>
+  </si>
+  <si>
+    <t>Mali/2012/MLMR6HFL.DTA</t>
+  </si>
+  <si>
+    <t>MLMR7HFL.DTA</t>
+  </si>
+  <si>
+    <t>Mali/2018/MLMR7HFL.DTA</t>
+  </si>
+  <si>
+    <t>MZMR61FL.DTA</t>
+  </si>
+  <si>
+    <t>Mozambique/2011/MZMR61FL.DTA</t>
+  </si>
+  <si>
+    <t>MMMR71FL.DTA</t>
+  </si>
+  <si>
+    <t>Myanmar/2015/MMMR71FL.DTA</t>
+  </si>
+  <si>
+    <t>NMMR61FL.DTA</t>
+  </si>
+  <si>
+    <t>Namibia/2013/NMMR61FL.DTA</t>
+  </si>
+  <si>
+    <t>NPMR60FL.DTA</t>
+  </si>
+  <si>
+    <t>Nepal/2011/NPMR60FL.DTA</t>
+  </si>
+  <si>
+    <t>NPMR7HFL.DTA</t>
+  </si>
+  <si>
+    <t>Nepal/2016/NPMR7HFL.DTA</t>
+  </si>
+  <si>
+    <t>NIMR61FL.DTA</t>
+  </si>
+  <si>
+    <t>Niger/2012/NIMR61FL.DTA</t>
+  </si>
+  <si>
+    <t>NGMR6AFL.DTA</t>
+  </si>
+  <si>
+    <t>Nigeria/2013/NGMR6AFL.DTA</t>
+  </si>
+  <si>
+    <t>NGMR7AFL.DTA</t>
+  </si>
+  <si>
+    <t>Nigeria/2018/NGMR7AFL.DTA</t>
+  </si>
+  <si>
+    <t>PKMR61FL.DTA</t>
+  </si>
+  <si>
+    <t>Pakistan/2012/PKMR61FL.DTA</t>
+  </si>
+  <si>
+    <t>PKMR71FL.DTA</t>
+  </si>
+  <si>
+    <t>Pakistan/2017/PKMR71FL.DTA</t>
+  </si>
+  <si>
+    <t>Pakistan/2018/PKMR71FL.DTA</t>
+  </si>
+  <si>
+    <t>SNMR80FL.DTA</t>
+  </si>
+  <si>
+    <t>Senegal/2018/SNMR80FL.DTA</t>
+  </si>
+  <si>
+    <t>SNMR8AFL.DTA</t>
+  </si>
+  <si>
+    <t>Senegal/2019/SNMR8AFL.DTA</t>
+  </si>
+  <si>
+    <t>SLMR7AFL.DTA</t>
+  </si>
+  <si>
+    <t>SierraLeone/2019/SLMR7AFL.DTA</t>
+  </si>
+  <si>
+    <t>TLMR71FL.DTA</t>
+  </si>
+  <si>
+    <t>TimorLeste/2016/TLMR71FL.DTA</t>
+  </si>
+  <si>
+    <t>UGMR7BFL.DTA</t>
+  </si>
+  <si>
+    <t>Uganda/2016/UGMR7BFL.DTA</t>
+  </si>
+  <si>
+    <t>Turkmenistan/2015/hl.dta</t>
+  </si>
+  <si>
+    <t>SyrianAR</t>
+  </si>
+  <si>
+    <t>SyrianAR/2006/hl.dta</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau/2006/hl.dta</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau/2014/hl.dta</t>
+  </si>
+  <si>
+    <t>Mongolia/2010/hl.dta</t>
+  </si>
+  <si>
+    <t>Mongolia/2013/hl.dta</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>Algeria/2012/hl.dta</t>
+  </si>
+  <si>
+    <t>Algeria/2018/hl.dta</t>
   </si>
 </sst>
 </file>
@@ -551,10 +1718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A173" sqref="A2:XFD173"/>
+    <sheetView topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -581,86 +1748,954 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B2">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>188</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B3">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>190</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B4">
-        <v>2016</v>
+        <v>2011</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="B5">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>194</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B6">
-        <v>2018</v>
+        <v>2010</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>196</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7">
+        <v>2015</v>
+      </c>
+      <c r="C7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>2011</v>
+      </c>
+      <c r="C8" t="s">
+        <v>200</v>
+      </c>
+      <c r="D8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>2014</v>
+      </c>
+      <c r="C9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>2017</v>
+      </c>
+      <c r="C10" t="s">
+        <v>204</v>
+      </c>
+      <c r="D10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11">
+        <v>2011</v>
+      </c>
+      <c r="C11" t="s">
+        <v>206</v>
+      </c>
+      <c r="D11" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12">
+        <v>2018</v>
+      </c>
+      <c r="C12" t="s">
+        <v>208</v>
+      </c>
+      <c r="D12" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13">
+        <v>2010</v>
+      </c>
+      <c r="C13" t="s">
+        <v>210</v>
+      </c>
+      <c r="D13" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14">
+        <v>2010</v>
+      </c>
+      <c r="C14" t="s">
+        <v>212</v>
+      </c>
+      <c r="D14" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15">
+        <v>2016</v>
+      </c>
+      <c r="C15" t="s">
+        <v>214</v>
+      </c>
+      <c r="D15" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16">
+        <v>2017</v>
+      </c>
+      <c r="C16" t="s">
+        <v>216</v>
+      </c>
+      <c r="D16" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17">
+        <v>2010</v>
+      </c>
+      <c r="C17" t="s">
+        <v>218</v>
+      </c>
+      <c r="D17" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18">
+        <v>2014</v>
+      </c>
+      <c r="C18" t="s">
+        <v>220</v>
+      </c>
+      <c r="D18" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>2011</v>
+      </c>
+      <c r="C19" t="s">
+        <v>222</v>
+      </c>
+      <c r="D19" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>2018</v>
+      </c>
+      <c r="C20" t="s">
+        <v>224</v>
+      </c>
+      <c r="D20" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21">
+        <v>2014</v>
+      </c>
+      <c r="C21" t="s">
+        <v>226</v>
+      </c>
+      <c r="D21" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22">
+        <v>2010</v>
+      </c>
+      <c r="C22" t="s">
+        <v>228</v>
+      </c>
+      <c r="D22" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23">
+        <v>2015</v>
+      </c>
+      <c r="C23" t="s">
+        <v>230</v>
+      </c>
+      <c r="D23" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24">
+        <v>2012</v>
+      </c>
+      <c r="C24" t="s">
+        <v>232</v>
+      </c>
+      <c r="D24" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25">
+        <v>2011</v>
+      </c>
+      <c r="C25" t="s">
+        <v>234</v>
+      </c>
+      <c r="D25" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26">
+        <v>2011</v>
+      </c>
+      <c r="C26" t="s">
+        <v>236</v>
+      </c>
+      <c r="D26" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27">
+        <v>2013</v>
+      </c>
+      <c r="C27" t="s">
+        <v>238</v>
+      </c>
+      <c r="D27" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28">
+        <v>2013</v>
+      </c>
+      <c r="C28" t="s">
+        <v>240</v>
+      </c>
+      <c r="D28" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29">
+        <v>2014</v>
+      </c>
+      <c r="C29" t="s">
+        <v>242</v>
+      </c>
+      <c r="D29" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30">
+        <v>2011</v>
+      </c>
+      <c r="C30" t="s">
+        <v>244</v>
+      </c>
+      <c r="D30" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31">
+        <v>2016</v>
+      </c>
+      <c r="C31" t="s">
+        <v>246</v>
+      </c>
+      <c r="D31" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32">
+        <v>2012</v>
+      </c>
+      <c r="C32" t="s">
+        <v>248</v>
+      </c>
+      <c r="D32" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33">
+        <v>2013</v>
+      </c>
+      <c r="C33" t="s">
+        <v>250</v>
+      </c>
+      <c r="D33" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34">
+        <v>2013</v>
+      </c>
+      <c r="C34" t="s">
+        <v>252</v>
+      </c>
+      <c r="D34" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35">
+        <v>2014</v>
+      </c>
+      <c r="C35" t="s">
+        <v>254</v>
+      </c>
+      <c r="D35" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36">
+        <v>2014</v>
+      </c>
+      <c r="C36" t="s">
+        <v>256</v>
+      </c>
+      <c r="D36" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37">
+        <v>2012</v>
+      </c>
+      <c r="C37" t="s">
+        <v>258</v>
+      </c>
+      <c r="D37" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>107</v>
+      </c>
+      <c r="B38">
+        <v>2018</v>
+      </c>
+      <c r="C38" t="s">
+        <v>260</v>
+      </c>
+      <c r="D38" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>112</v>
+      </c>
+      <c r="B39">
+        <v>2012</v>
+      </c>
+      <c r="C39" t="s">
+        <v>262</v>
+      </c>
+      <c r="D39" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>112</v>
+      </c>
+      <c r="B40">
+        <v>2017</v>
+      </c>
+      <c r="C40" t="s">
+        <v>264</v>
+      </c>
+      <c r="D40" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>117</v>
+      </c>
+      <c r="B41">
+        <v>2011</v>
+      </c>
+      <c r="C41" t="s">
+        <v>266</v>
+      </c>
+      <c r="D41" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>120</v>
+      </c>
+      <c r="B42">
+        <v>2012</v>
+      </c>
+      <c r="C42" t="s">
+        <v>268</v>
+      </c>
+      <c r="D42" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>120</v>
+      </c>
+      <c r="B43">
+        <v>2017</v>
+      </c>
+      <c r="C43" t="s">
+        <v>270</v>
+      </c>
+      <c r="D43" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44">
+        <v>2012</v>
+      </c>
+      <c r="C44" t="s">
+        <v>272</v>
+      </c>
+      <c r="D44" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45">
+        <v>2017</v>
+      </c>
+      <c r="C45" t="s">
+        <v>274</v>
+      </c>
+      <c r="D45" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>129</v>
+      </c>
+      <c r="B46">
+        <v>2014</v>
+      </c>
+      <c r="C46" t="s">
+        <v>276</v>
+      </c>
+      <c r="D46" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47">
+        <v>2012</v>
+      </c>
+      <c r="C47" t="s">
+        <v>278</v>
+      </c>
+      <c r="D47" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>19</v>
+      </c>
+      <c r="B48">
+        <v>2014</v>
+      </c>
+      <c r="C48" t="s">
+        <v>280</v>
+      </c>
+      <c r="D48" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>136</v>
+      </c>
+      <c r="B49">
+        <v>2013</v>
+      </c>
+      <c r="C49" t="s">
+        <v>282</v>
+      </c>
+      <c r="D49" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>139</v>
+      </c>
+      <c r="B50">
+        <v>2010</v>
+      </c>
+      <c r="C50" t="s">
+        <v>284</v>
+      </c>
+      <c r="D50" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>142</v>
+      </c>
+      <c r="B51">
+        <v>2017</v>
+      </c>
+      <c r="C51" t="s">
+        <v>286</v>
+      </c>
+      <c r="D51" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>145</v>
+      </c>
+      <c r="B52">
+        <v>2012</v>
+      </c>
+      <c r="C52" t="s">
+        <v>288</v>
+      </c>
+      <c r="D52" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>145</v>
+      </c>
+      <c r="B53">
+        <v>2018</v>
+      </c>
+      <c r="C53" t="s">
+        <v>290</v>
+      </c>
+      <c r="D53" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>150</v>
+      </c>
+      <c r="B54">
+        <v>2011</v>
+      </c>
+      <c r="C54" t="s">
+        <v>292</v>
+      </c>
+      <c r="D54" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>153</v>
+      </c>
+      <c r="B55">
+        <v>2015</v>
+      </c>
+      <c r="C55" t="s">
+        <v>294</v>
+      </c>
+      <c r="D55" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>156</v>
+      </c>
+      <c r="B56">
+        <v>2013</v>
+      </c>
+      <c r="C56" t="s">
+        <v>296</v>
+      </c>
+      <c r="D56" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>21</v>
+      </c>
+      <c r="B57">
+        <v>2011</v>
+      </c>
+      <c r="C57" t="s">
+        <v>298</v>
+      </c>
+      <c r="D57" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>21</v>
+      </c>
+      <c r="B58">
+        <v>2016</v>
+      </c>
+      <c r="C58" t="s">
+        <v>300</v>
+      </c>
+      <c r="D58" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>161</v>
+      </c>
+      <c r="B59">
+        <v>2012</v>
+      </c>
+      <c r="C59" t="s">
+        <v>302</v>
+      </c>
+      <c r="D59" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>164</v>
+      </c>
+      <c r="B60">
+        <v>2013</v>
+      </c>
+      <c r="C60" t="s">
+        <v>304</v>
+      </c>
+      <c r="D60" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>164</v>
+      </c>
+      <c r="B61">
+        <v>2018</v>
+      </c>
+      <c r="C61" t="s">
+        <v>306</v>
+      </c>
+      <c r="D61" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62">
+        <v>2012</v>
+      </c>
+      <c r="C62" t="s">
+        <v>308</v>
+      </c>
+      <c r="D62" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63">
+        <v>2017</v>
+      </c>
+      <c r="C63" t="s">
+        <v>310</v>
+      </c>
+      <c r="D63" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64">
+        <v>2018</v>
+      </c>
+      <c r="C64" t="s">
+        <v>312</v>
+      </c>
+      <c r="D64" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65">
+        <v>2019</v>
+      </c>
+      <c r="C65" t="s">
+        <v>314</v>
+      </c>
+      <c r="D65" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>178</v>
+      </c>
+      <c r="B66">
+        <v>2019</v>
+      </c>
+      <c r="C66" t="s">
+        <v>316</v>
+      </c>
+      <c r="D66" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67">
+        <v>2016</v>
+      </c>
+      <c r="C67" t="s">
+        <v>318</v>
+      </c>
+      <c r="D67" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>183</v>
+      </c>
+      <c r="B68">
+        <v>2013</v>
+      </c>
+      <c r="C68" t="s">
+        <v>320</v>
+      </c>
+      <c r="D68" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>2017</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>55</v>
+      <c r="B69">
+        <v>2016</v>
+      </c>
+      <c r="C69" t="s">
+        <v>322</v>
+      </c>
+      <c r="D69" t="s">
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -675,10 +2710,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A158" sqref="A2:XFD158"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -704,86 +2739,940 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B2">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B3">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B4">
-        <v>2016</v>
+        <v>2011</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="B5">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B6">
-        <v>2018</v>
+        <v>2010</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7">
+        <v>2015</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>2011</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>2014</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>2017</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11">
+        <v>2011</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12">
+        <v>2018</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13">
+        <v>2010</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14">
+        <v>2010</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15">
+        <v>2016</v>
+      </c>
+      <c r="C15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16">
+        <v>2017</v>
+      </c>
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17">
+        <v>2010</v>
+      </c>
+      <c r="C17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18">
+        <v>2014</v>
+      </c>
+      <c r="C18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>2011</v>
+      </c>
+      <c r="C19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>2018</v>
+      </c>
+      <c r="C20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21">
+        <v>2014</v>
+      </c>
+      <c r="C21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22">
+        <v>2015</v>
+      </c>
+      <c r="C22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23">
+        <v>2012</v>
+      </c>
+      <c r="C23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24">
+        <v>2011</v>
+      </c>
+      <c r="C24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25">
+        <v>2011</v>
+      </c>
+      <c r="C25" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26">
+        <v>2013</v>
+      </c>
+      <c r="C26" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27">
+        <v>2013</v>
+      </c>
+      <c r="C27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28">
+        <v>2014</v>
+      </c>
+      <c r="C28" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29">
+        <v>2011</v>
+      </c>
+      <c r="C29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30">
+        <v>2016</v>
+      </c>
+      <c r="C30" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31">
+        <v>2012</v>
+      </c>
+      <c r="C31" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32">
+        <v>2013</v>
+      </c>
+      <c r="C32" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33">
+        <v>2013</v>
+      </c>
+      <c r="C33" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34">
+        <v>2014</v>
+      </c>
+      <c r="C34" t="s">
+        <v>102</v>
+      </c>
+      <c r="D34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>104</v>
+      </c>
+      <c r="B35">
+        <v>2014</v>
+      </c>
+      <c r="C35" t="s">
+        <v>105</v>
+      </c>
+      <c r="D35" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>107</v>
+      </c>
+      <c r="B36">
+        <v>2012</v>
+      </c>
+      <c r="C36" t="s">
+        <v>108</v>
+      </c>
+      <c r="D36" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37">
+        <v>2018</v>
+      </c>
+      <c r="C37" t="s">
+        <v>110</v>
+      </c>
+      <c r="D37" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>112</v>
+      </c>
+      <c r="B38">
+        <v>2012</v>
+      </c>
+      <c r="C38" t="s">
+        <v>113</v>
+      </c>
+      <c r="D38" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>112</v>
+      </c>
+      <c r="B39">
+        <v>2017</v>
+      </c>
+      <c r="C39" t="s">
+        <v>115</v>
+      </c>
+      <c r="D39" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>117</v>
+      </c>
+      <c r="B40">
+        <v>2011</v>
+      </c>
+      <c r="C40" t="s">
+        <v>118</v>
+      </c>
+      <c r="D40" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>120</v>
+      </c>
+      <c r="B41">
+        <v>2012</v>
+      </c>
+      <c r="C41" t="s">
+        <v>121</v>
+      </c>
+      <c r="D41" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>120</v>
+      </c>
+      <c r="B42">
+        <v>2017</v>
+      </c>
+      <c r="C42" t="s">
+        <v>123</v>
+      </c>
+      <c r="D42" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43">
+        <v>2012</v>
+      </c>
+      <c r="C43" t="s">
+        <v>125</v>
+      </c>
+      <c r="D43" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44">
+        <v>2017</v>
+      </c>
+      <c r="C44" t="s">
+        <v>127</v>
+      </c>
+      <c r="D44" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>129</v>
+      </c>
+      <c r="B45">
+        <v>2014</v>
+      </c>
+      <c r="C45" t="s">
+        <v>130</v>
+      </c>
+      <c r="D45" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>18</v>
+      </c>
+      <c r="B46">
+        <v>2012</v>
+      </c>
+      <c r="C46" t="s">
+        <v>132</v>
+      </c>
+      <c r="D46" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>19</v>
+      </c>
+      <c r="B47">
+        <v>2014</v>
+      </c>
+      <c r="C47" t="s">
+        <v>134</v>
+      </c>
+      <c r="D47" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>136</v>
+      </c>
+      <c r="B48">
+        <v>2013</v>
+      </c>
+      <c r="C48" t="s">
+        <v>137</v>
+      </c>
+      <c r="D48" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>139</v>
+      </c>
+      <c r="B49">
+        <v>2010</v>
+      </c>
+      <c r="C49" t="s">
+        <v>140</v>
+      </c>
+      <c r="D49" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>142</v>
+      </c>
+      <c r="B50">
+        <v>2017</v>
+      </c>
+      <c r="C50" t="s">
+        <v>143</v>
+      </c>
+      <c r="D50" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>145</v>
+      </c>
+      <c r="B51">
+        <v>2012</v>
+      </c>
+      <c r="C51" t="s">
+        <v>146</v>
+      </c>
+      <c r="D51" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>145</v>
+      </c>
+      <c r="B52">
+        <v>2018</v>
+      </c>
+      <c r="C52" t="s">
+        <v>148</v>
+      </c>
+      <c r="D52" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>150</v>
+      </c>
+      <c r="B53">
+        <v>2011</v>
+      </c>
+      <c r="C53" t="s">
+        <v>151</v>
+      </c>
+      <c r="D53" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>153</v>
+      </c>
+      <c r="B54">
+        <v>2015</v>
+      </c>
+      <c r="C54" t="s">
+        <v>154</v>
+      </c>
+      <c r="D54" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>156</v>
+      </c>
+      <c r="B55">
+        <v>2013</v>
+      </c>
+      <c r="C55" t="s">
+        <v>157</v>
+      </c>
+      <c r="D55" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>21</v>
+      </c>
+      <c r="B56">
+        <v>2011</v>
+      </c>
+      <c r="C56" t="s">
+        <v>159</v>
+      </c>
+      <c r="D56" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>161</v>
+      </c>
+      <c r="B57">
+        <v>2012</v>
+      </c>
+      <c r="C57" t="s">
+        <v>162</v>
+      </c>
+      <c r="D57" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>164</v>
+      </c>
+      <c r="B58">
+        <v>2013</v>
+      </c>
+      <c r="C58" t="s">
+        <v>165</v>
+      </c>
+      <c r="D58" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>164</v>
+      </c>
+      <c r="B59">
+        <v>2018</v>
+      </c>
+      <c r="C59" t="s">
+        <v>167</v>
+      </c>
+      <c r="D59" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60">
+        <v>2012</v>
+      </c>
+      <c r="C60" t="s">
+        <v>169</v>
+      </c>
+      <c r="D60" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61">
+        <v>2017</v>
+      </c>
+      <c r="C61" t="s">
+        <v>171</v>
+      </c>
+      <c r="D61" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62">
+        <v>2018</v>
+      </c>
+      <c r="C62" t="s">
+        <v>171</v>
+      </c>
+      <c r="D62" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63">
+        <v>2018</v>
+      </c>
+      <c r="C63" t="s">
+        <v>174</v>
+      </c>
+      <c r="D63" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64">
+        <v>2019</v>
+      </c>
+      <c r="C64" t="s">
+        <v>176</v>
+      </c>
+      <c r="D64" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>178</v>
+      </c>
+      <c r="B65">
+        <v>2019</v>
+      </c>
+      <c r="C65" t="s">
+        <v>179</v>
+      </c>
+      <c r="D65" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66">
+        <v>2016</v>
+      </c>
+      <c r="C66" t="s">
+        <v>181</v>
+      </c>
+      <c r="D66" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>183</v>
+      </c>
+      <c r="B67">
+        <v>2013</v>
+      </c>
+      <c r="C67" t="s">
+        <v>184</v>
+      </c>
+      <c r="D67" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>2017</v>
-      </c>
-      <c r="C7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" t="s">
-        <v>61</v>
+      <c r="B68">
+        <v>2016</v>
+      </c>
+      <c r="C68" t="s">
+        <v>186</v>
+      </c>
+      <c r="D68" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -798,10 +3687,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection sqref="A1:D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -827,86 +3716,884 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B2">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>324</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>325</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B3">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>326</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>327</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B4">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>328</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="B5">
-        <v>2017</v>
+        <v>2010</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>330</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B6">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>332</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>333</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>2011</v>
+      </c>
+      <c r="C7" t="s">
+        <v>334</v>
+      </c>
+      <c r="D7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8">
+        <v>2011</v>
+      </c>
+      <c r="C8" t="s">
+        <v>336</v>
+      </c>
+      <c r="D8" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9">
+        <v>2017</v>
+      </c>
+      <c r="C9" t="s">
+        <v>338</v>
+      </c>
+      <c r="D9" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10">
+        <v>2018</v>
+      </c>
+      <c r="C10" t="s">
+        <v>338</v>
+      </c>
+      <c r="D10" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11">
+        <v>2010</v>
+      </c>
+      <c r="C11" t="s">
+        <v>341</v>
+      </c>
+      <c r="D11" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12">
+        <v>2010</v>
+      </c>
+      <c r="C12" t="s">
+        <v>343</v>
+      </c>
+      <c r="D12" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13">
+        <v>2016</v>
+      </c>
+      <c r="C13" t="s">
+        <v>345</v>
+      </c>
+      <c r="D13" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14">
+        <v>2017</v>
+      </c>
+      <c r="C14" t="s">
+        <v>347</v>
+      </c>
+      <c r="D14" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15">
+        <v>2010</v>
+      </c>
+      <c r="C15" t="s">
+        <v>349</v>
+      </c>
+      <c r="D15" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16">
+        <v>2014</v>
+      </c>
+      <c r="C16" t="s">
+        <v>351</v>
+      </c>
+      <c r="D16" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>2011</v>
+      </c>
+      <c r="C17" t="s">
+        <v>353</v>
+      </c>
+      <c r="D17" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>2018</v>
+      </c>
+      <c r="C18" t="s">
+        <v>355</v>
+      </c>
+      <c r="D18" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19">
+        <v>2014</v>
+      </c>
+      <c r="C19" t="s">
+        <v>357</v>
+      </c>
+      <c r="D19" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20">
+        <v>2015</v>
+      </c>
+      <c r="C20" t="s">
+        <v>359</v>
+      </c>
+      <c r="D20" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21">
+        <v>2012</v>
+      </c>
+      <c r="C21" t="s">
+        <v>361</v>
+      </c>
+      <c r="D21" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22">
+        <v>2011</v>
+      </c>
+      <c r="C22" t="s">
+        <v>363</v>
+      </c>
+      <c r="D22" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23">
+        <v>2011</v>
+      </c>
+      <c r="C23" t="s">
+        <v>365</v>
+      </c>
+      <c r="D23" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24">
+        <v>2013</v>
+      </c>
+      <c r="C24" t="s">
+        <v>367</v>
+      </c>
+      <c r="D24" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25">
+        <v>2013</v>
+      </c>
+      <c r="C25" t="s">
+        <v>369</v>
+      </c>
+      <c r="D25" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26">
+        <v>2011</v>
+      </c>
+      <c r="C26" t="s">
+        <v>371</v>
+      </c>
+      <c r="D26" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27">
+        <v>2016</v>
+      </c>
+      <c r="C27" t="s">
+        <v>373</v>
+      </c>
+      <c r="D27" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28">
+        <v>2012</v>
+      </c>
+      <c r="C28" t="s">
+        <v>375</v>
+      </c>
+      <c r="D28" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29">
+        <v>2013</v>
+      </c>
+      <c r="C29" t="s">
+        <v>377</v>
+      </c>
+      <c r="D29" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30">
+        <v>2013</v>
+      </c>
+      <c r="C30" t="s">
+        <v>379</v>
+      </c>
+      <c r="D30" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31">
+        <v>2014</v>
+      </c>
+      <c r="C31" t="s">
+        <v>381</v>
+      </c>
+      <c r="D31" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>104</v>
+      </c>
+      <c r="B32">
+        <v>2014</v>
+      </c>
+      <c r="C32" t="s">
+        <v>383</v>
+      </c>
+      <c r="D32" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>107</v>
+      </c>
+      <c r="B33">
+        <v>2012</v>
+      </c>
+      <c r="C33" t="s">
+        <v>385</v>
+      </c>
+      <c r="D33" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>107</v>
+      </c>
+      <c r="B34">
+        <v>2018</v>
+      </c>
+      <c r="C34" t="s">
+        <v>387</v>
+      </c>
+      <c r="D34" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>112</v>
+      </c>
+      <c r="B35">
+        <v>2012</v>
+      </c>
+      <c r="C35" t="s">
+        <v>389</v>
+      </c>
+      <c r="D35" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>112</v>
+      </c>
+      <c r="B36">
+        <v>2017</v>
+      </c>
+      <c r="C36" t="s">
+        <v>391</v>
+      </c>
+      <c r="D36" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>117</v>
+      </c>
+      <c r="B37">
+        <v>2011</v>
+      </c>
+      <c r="C37" t="s">
+        <v>393</v>
+      </c>
+      <c r="D37" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>120</v>
+      </c>
+      <c r="B38">
+        <v>2012</v>
+      </c>
+      <c r="C38" t="s">
+        <v>395</v>
+      </c>
+      <c r="D38" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>120</v>
+      </c>
+      <c r="B39">
+        <v>2017</v>
+      </c>
+      <c r="C39" t="s">
+        <v>397</v>
+      </c>
+      <c r="D39" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40">
+        <v>2017</v>
+      </c>
+      <c r="C40" t="s">
+        <v>399</v>
+      </c>
+      <c r="D40" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>129</v>
+      </c>
+      <c r="B41">
+        <v>2014</v>
+      </c>
+      <c r="C41" t="s">
+        <v>401</v>
+      </c>
+      <c r="D41" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42">
+        <v>2012</v>
+      </c>
+      <c r="C42" t="s">
+        <v>403</v>
+      </c>
+      <c r="D42" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43">
+        <v>2014</v>
+      </c>
+      <c r="C43" t="s">
+        <v>405</v>
+      </c>
+      <c r="D43" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>136</v>
+      </c>
+      <c r="B44">
+        <v>2013</v>
+      </c>
+      <c r="C44" t="s">
+        <v>407</v>
+      </c>
+      <c r="D44" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>139</v>
+      </c>
+      <c r="B45">
+        <v>2010</v>
+      </c>
+      <c r="C45" t="s">
+        <v>409</v>
+      </c>
+      <c r="D45" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>142</v>
+      </c>
+      <c r="B46">
+        <v>2017</v>
+      </c>
+      <c r="C46" t="s">
+        <v>411</v>
+      </c>
+      <c r="D46" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>145</v>
+      </c>
+      <c r="B47">
+        <v>2012</v>
+      </c>
+      <c r="C47" t="s">
+        <v>413</v>
+      </c>
+      <c r="D47" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>145</v>
+      </c>
+      <c r="B48">
+        <v>2018</v>
+      </c>
+      <c r="C48" t="s">
+        <v>415</v>
+      </c>
+      <c r="D48" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>150</v>
+      </c>
+      <c r="B49">
+        <v>2011</v>
+      </c>
+      <c r="C49" t="s">
+        <v>417</v>
+      </c>
+      <c r="D49" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>153</v>
+      </c>
+      <c r="B50">
+        <v>2015</v>
+      </c>
+      <c r="C50" t="s">
+        <v>419</v>
+      </c>
+      <c r="D50" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>156</v>
+      </c>
+      <c r="B51">
+        <v>2013</v>
+      </c>
+      <c r="C51" t="s">
+        <v>421</v>
+      </c>
+      <c r="D51" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>21</v>
+      </c>
+      <c r="B52">
+        <v>2011</v>
+      </c>
+      <c r="C52" t="s">
+        <v>423</v>
+      </c>
+      <c r="D52" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>21</v>
+      </c>
+      <c r="B53">
+        <v>2016</v>
+      </c>
+      <c r="C53" t="s">
+        <v>425</v>
+      </c>
+      <c r="D53" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>161</v>
+      </c>
+      <c r="B54">
+        <v>2012</v>
+      </c>
+      <c r="C54" t="s">
+        <v>427</v>
+      </c>
+      <c r="D54" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>164</v>
+      </c>
+      <c r="B55">
+        <v>2013</v>
+      </c>
+      <c r="C55" t="s">
+        <v>429</v>
+      </c>
+      <c r="D55" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>164</v>
+      </c>
+      <c r="B56">
+        <v>2018</v>
+      </c>
+      <c r="C56" t="s">
+        <v>431</v>
+      </c>
+      <c r="D56" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57">
+        <v>2012</v>
+      </c>
+      <c r="C57" t="s">
+        <v>433</v>
+      </c>
+      <c r="D57" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58">
+        <v>2017</v>
+      </c>
+      <c r="C58" t="s">
+        <v>435</v>
+      </c>
+      <c r="D58" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59">
+        <v>2018</v>
+      </c>
+      <c r="C59" t="s">
+        <v>435</v>
+      </c>
+      <c r="D59" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60">
+        <v>2018</v>
+      </c>
+      <c r="C60" t="s">
+        <v>438</v>
+      </c>
+      <c r="D60" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61">
+        <v>2019</v>
+      </c>
+      <c r="C61" t="s">
+        <v>440</v>
+      </c>
+      <c r="D61" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>178</v>
+      </c>
+      <c r="B62">
+        <v>2019</v>
+      </c>
+      <c r="C62" t="s">
+        <v>442</v>
+      </c>
+      <c r="D62" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63">
+        <v>2016</v>
+      </c>
+      <c r="C63" t="s">
+        <v>444</v>
+      </c>
+      <c r="D63" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>2017</v>
-      </c>
-      <c r="C7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" t="s">
-        <v>66</v>
+      <c r="B64">
+        <v>2016</v>
+      </c>
+      <c r="C64" t="s">
+        <v>446</v>
+      </c>
+      <c r="D64" t="s">
+        <v>447</v>
       </c>
     </row>
   </sheetData>
@@ -921,16 +4608,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7265625" customWidth="1"/>
     <col min="4" max="4" width="29.453125" customWidth="1"/>
+    <col min="5" max="5" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -948,160 +4636,121 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1">
-        <v>2019</v>
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>2015</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>448</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2011</v>
+      <c r="A3" t="s">
+        <v>449</v>
+      </c>
+      <c r="B3">
+        <v>2006</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>450</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="1">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>2006</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>2014</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>2010</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>2013</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>455</v>
+      </c>
+      <c r="B8">
+        <v>2012</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>455</v>
+      </c>
+      <c r="B9">
         <v>2018</v>
       </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2018</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2017</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="1">
-        <v>2018</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>2017</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="1">
-        <v>2017</v>
-      </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="1">
-        <v>2019</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="1">
-        <v>2012</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="1">
-        <v>2018</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" t="s">
-        <v>31</v>
+        <v>457</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:D26">
+    <sortCondition ref="A1"/>
+  </sortState>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
